--- a/medicine/Enfance/Garth_Nix/Garth_Nix.xlsx
+++ b/medicine/Enfance/Garth_Nix/Garth_Nix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Garth Nix, né le 19 juillet 1963 à Melbourne, est un écrivain de fantasy australien de langue anglaise. Il vit à Sydney.
 </t>
@@ -513,53 +525,364 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série X-Files : Aux frontières du réel
- Les Calusari, J'ai lu, 1997 ((en) The Calusari, 1997)
-Série L'Ancien Royaume
-Sabriël, 2003 ((en) Sabriel, 1995)  (ISBN 2-290-32936-3)La jeune Sabriël quitte précipitamment la pension où elle termine ses études pour se lancer à la recherche de son père, le nécromancien Abhorsën, qu'un démon a piégé dans l'au-delà.
+          <t>Série X-Files : Aux frontières du réel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Les Calusari, J'ai lu, 1997 ((en) The Calusari, 1997)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Garth_Nix</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garth_Nix</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série L'Ancien Royaume</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sabriël, 2003 ((en) Sabriel, 1995)  (ISBN 2-290-32936-3)La jeune Sabriël quitte précipitamment la pension où elle termine ses études pour se lancer à la recherche de son père, le nécromancien Abhorsën, qu'un démon a piégé dans l'au-delà.
 Liraël, 2004 ((en) Lirael, 2001)  (ISBN 2-290-32937-1)Liraël, la descendante d'une famille de voyants, doit entreprendre un périlleux voyage avec Sameth, le fils de Sabriël et du roi Gwynplaïn.
 Abhorsën, 2004 ((en) Abhorsen, 2003)  (ISBN 2-290-32936-3)Pendant que Sabriël et le roi Gwynplaïn sont visés par un attentat à l'étranger, leurs héritiers, Liraël et Sameth, se retrouvent encerclés par une horde de morts-vivants.
 (en) Clariel, 2014
 (en) Goldenhand, 2016
-(en) Terciel &amp; Elinor, 2021
-Série The Seventh Tower
-(en) The Fall, 2000
+(en) Terciel &amp; Elinor, 2021</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Garth_Nix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garth_Nix</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série The Seventh Tower</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Fall, 2000
 (en) Castle, 2000
 (en) Aenir, 2001
 (en) Above the Veil, 2001
 (en) Into Battle, 2001
-(en) The Violet Keystone, 2001
-Série Les Sept Clefs du pouvoir
-Lundi mystérieux, Gallimard Jeunesse, 2006 ((en) Mister Monday, 2003)  (ISBN 978-2-07-051508-0)
+(en) The Violet Keystone, 2001</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Garth_Nix</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garth_Nix</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Les Sept Clefs du pouvoir</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lundi mystérieux, Gallimard Jeunesse, 2006 ((en) Mister Monday, 2003)  (ISBN 978-2-07-051508-0)
 Sombre Mardi, Gallimard Jeunesse, 2007 ((en) Grim Tuesday, 2004)  (ISBN 978-2-07-051599-8)
 Mercredi sous les flots, Gallimard Jeunesse, 2007 ((en) Drowned Wednesday, 2005)  (ISBN 978-2-07-061149-2)
 Jeudi meurtrier, Gallimard Jeunesse, 2008 ((en) Sir Thursday, 2006)  (ISBN 978-2-07-061451-6)
 Vendredi maléfique, Gallimard Jeunesse, 2008 ((en) Lady Friday, 2007)  (ISBN 978-2-07-061984-9)
 Samedi suprême, Gallimard Jeunesse, 2009 ((en) Superior Saturday, 2009)  (ISBN 978-2-07-062120-0)
-Dimanche fatal, Gallimard Jeunesse, 2010 ((en) Lord Sunday, 2010)  (ISBN 978-2-07-062121-7)
-Série Troubletwisters
-Cette série est écrite en collaboration avec Sean Williams.
+Dimanche fatal, Gallimard Jeunesse, 2010 ((en) Lord Sunday, 2010)  (ISBN 978-2-07-062121-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Garth_Nix</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garth_Nix</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Troubletwisters</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette série est écrite en collaboration avec Sean Williams.
 (en) Troubletwisters, 2011
 (en) The Monster, 2012
 (en) The Mystery, 2013
-(en) The Missing, 2014
-Série Have Sword, Will Travel
-Cette série est écrite en collaboration avec Sean Williams.
+(en) The Missing, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Garth_Nix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garth_Nix</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Have Sword, Will Travel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cette série est écrite en collaboration avec Sean Williams.
 (en) Have Sword, Will Travel, 2017
-(en) Let Sleeping Dragons Lie, 2018
-Série Les Libraires gauchers de Londres
-Les Libraires gauchers de Londres, Leha, 2022 ((en) The Left-Handed Booksellers of London, 2020)  (ISBN 978-2-493-40512-8)
-(en) The Sinister Booksellers of Bath, 2023
-Série Animal Tatoo
-Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Shannon Hale (tome 4), Tui Sutherland (tome 5), Eliot Schrefer (tome 6) et Marie Lu (tome 7).
- Prisonniers, Bayard, 2015 ((en) Blood Ties, 2014)
-Romans indépendants
-(en) The Ragwitch, 1990
+(en) Let Sleeping Dragons Lie, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Garth_Nix</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garth_Nix</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Les Libraires gauchers de Londres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Libraires gauchers de Londres, Leha, 2022 ((en) The Left-Handed Booksellers of London, 2020)  (ISBN 978-2-493-40512-8)
+(en) The Sinister Booksellers of Bath, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Garth_Nix</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garth_Nix</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Animal Tatoo</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Chaque volume de cette série est écrit par un écrivain différent. Les auteurs des autres volumes sont : Brandon Mull (tome 1), Maggie Stiefvater (tome 2), Shannon Hale (tome 4), Tui Sutherland (tome 5), Eliot Schrefer (tome 6) et Marie Lu (tome 7).
+ Prisonniers, Bayard, 2015 ((en) Blood Ties, 2014)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Garth_Nix</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garth_Nix</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(en) The Ragwitch, 1990
 (en) Newt's Emerald, 2015Édition numérique parue dès 2013
 (en) Frogkisser!, 2017Prix Mythopoeic 2018
-Angel Mage, Leha, 2023 ((en) Angel Mage, 2019), trad. Annaïg Houesnard, 352 p.  (ISBN 978-2-493-40558-6)
-Recueils de nouvelles
-(en) Across the Wall: A Tale of the Abhorsen and Other Stories, 2005
+Angel Mage, Leha, 2023 ((en) Angel Mage, 2019), trad. Annaïg Houesnard, 352 p.  (ISBN 978-2-493-40558-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Garth_Nix</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Garth_Nix</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(en) Across the Wall: A Tale of the Abhorsen and Other Stories, 2005
 (en) One Beastly Beast, Two Aliens, Three Inventors, Four Fantastic Tales, 2007
 (en) To Hold the Bridge, 2015
 (en) Sir Hereward and Mister Fitz, 2023</t>
